--- a/data/123-madao_service/common_structure.xlsx
+++ b/data/123-madao_service/common_structure.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14320" uniqueCount="1100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14355" uniqueCount="1098">
   <si>
     <t>类名</t>
   </si>
@@ -3296,12 +3296,6 @@
   </si>
   <si>
     <t>2</t>
-  </si>
-  <si>
-    <t>lambda$null$7(org.springframework.cloud.sleuth.Tracer)</t>
-  </si>
-  <si>
-    <t>processInstanceResponse(org.springframework.cloud.loadbalancer.core.ServiceInstanceListSupplier)</t>
   </si>
   <si>
     <t>源接口名</t>
@@ -49393,7 +49387,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F113"/>
+  <dimension ref="A1:F120"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -49523,7 +49517,7 @@
         <v>60</v>
       </c>
       <c r="B8" t="s">
-        <v>1092</v>
+        <v>73</v>
       </c>
       <c r="C8" t="s">
         <v>302</v>
@@ -49540,7 +49534,7 @@
         <v>83</v>
       </c>
       <c r="B9" t="s">
-        <v>1093</v>
+        <v>84</v>
       </c>
       <c r="C9" t="s">
         <v>83</v>
@@ -49554,16 +49548,16 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>222</v>
+        <v>83</v>
       </c>
       <c r="B10" t="s">
-        <v>224</v>
+        <v>86</v>
       </c>
       <c r="C10" t="s">
-        <v>225</v>
+        <v>83</v>
       </c>
       <c r="D10" t="s">
-        <v>231</v>
+        <v>84</v>
       </c>
       <c r="E10" t="s">
         <v>1090</v>
@@ -49580,7 +49574,7 @@
         <v>225</v>
       </c>
       <c r="D11" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="E11" t="s">
         <v>1090</v>
@@ -49597,7 +49591,7 @@
         <v>225</v>
       </c>
       <c r="D12" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E12" t="s">
         <v>1090</v>
@@ -49614,7 +49608,7 @@
         <v>225</v>
       </c>
       <c r="D13" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E13" t="s">
         <v>1090</v>
@@ -49622,16 +49616,16 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="B14" t="s">
-        <v>237</v>
+        <v>224</v>
       </c>
       <c r="C14" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="D14" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="E14" t="s">
         <v>1090</v>
@@ -49639,16 +49633,16 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>245</v>
+        <v>234</v>
       </c>
       <c r="B15" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C15" t="s">
-        <v>245</v>
+        <v>234</v>
       </c>
       <c r="D15" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="E15" t="s">
         <v>1090</v>
@@ -49656,16 +49650,16 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>247</v>
+        <v>234</v>
       </c>
       <c r="B16" t="s">
         <v>237</v>
       </c>
       <c r="C16" t="s">
-        <v>247</v>
+        <v>234</v>
       </c>
       <c r="D16" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="E16" t="s">
         <v>1090</v>
@@ -49673,16 +49667,16 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="B17" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C17" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="D17" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="E17" t="s">
         <v>1090</v>
@@ -49690,16 +49684,16 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="B18" t="s">
         <v>237</v>
       </c>
       <c r="C18" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="D18" t="s">
-        <v>253</v>
+        <v>238</v>
       </c>
       <c r="E18" t="s">
         <v>1090</v>
@@ -49707,16 +49701,16 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>271</v>
+        <v>247</v>
       </c>
       <c r="B19" t="s">
-        <v>276</v>
+        <v>236</v>
       </c>
       <c r="C19" t="s">
-        <v>271</v>
+        <v>247</v>
       </c>
       <c r="D19" t="s">
-        <v>278</v>
+        <v>249</v>
       </c>
       <c r="E19" t="s">
         <v>1090</v>
@@ -49724,16 +49718,16 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>271</v>
+        <v>247</v>
       </c>
       <c r="B20" t="s">
-        <v>277</v>
+        <v>237</v>
       </c>
       <c r="C20" t="s">
-        <v>271</v>
+        <v>247</v>
       </c>
       <c r="D20" t="s">
-        <v>280</v>
+        <v>248</v>
       </c>
       <c r="E20" t="s">
         <v>1090</v>
@@ -49741,16 +49735,16 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>271</v>
+        <v>250</v>
       </c>
       <c r="B21" t="s">
-        <v>289</v>
+        <v>236</v>
       </c>
       <c r="C21" t="s">
-        <v>271</v>
+        <v>250</v>
       </c>
       <c r="D21" t="s">
-        <v>280</v>
+        <v>249</v>
       </c>
       <c r="E21" t="s">
         <v>1090</v>
@@ -49758,16 +49752,16 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>271</v>
+        <v>250</v>
       </c>
       <c r="B22" t="s">
-        <v>289</v>
+        <v>237</v>
       </c>
       <c r="C22" t="s">
-        <v>271</v>
+        <v>250</v>
       </c>
       <c r="D22" t="s">
-        <v>294</v>
+        <v>251</v>
       </c>
       <c r="E22" t="s">
         <v>1090</v>
@@ -49775,16 +49769,16 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>302</v>
+        <v>252</v>
       </c>
       <c r="B23" t="s">
-        <v>306</v>
+        <v>236</v>
       </c>
       <c r="C23" t="s">
-        <v>302</v>
+        <v>252</v>
       </c>
       <c r="D23" t="s">
-        <v>303</v>
+        <v>249</v>
       </c>
       <c r="E23" t="s">
         <v>1090</v>
@@ -49792,16 +49786,16 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>302</v>
+        <v>252</v>
       </c>
       <c r="B24" t="s">
-        <v>306</v>
+        <v>237</v>
       </c>
       <c r="C24" t="s">
-        <v>302</v>
+        <v>252</v>
       </c>
       <c r="D24" t="s">
-        <v>314</v>
+        <v>253</v>
       </c>
       <c r="E24" t="s">
         <v>1090</v>
@@ -49809,16 +49803,16 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>302</v>
+        <v>271</v>
       </c>
       <c r="B25" t="s">
-        <v>311</v>
+        <v>276</v>
       </c>
       <c r="C25" t="s">
-        <v>302</v>
+        <v>271</v>
       </c>
       <c r="D25" t="s">
-        <v>308</v>
+        <v>278</v>
       </c>
       <c r="E25" t="s">
         <v>1090</v>
@@ -49826,16 +49820,16 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>302</v>
+        <v>271</v>
       </c>
       <c r="B26" t="s">
-        <v>311</v>
+        <v>277</v>
       </c>
       <c r="C26" t="s">
-        <v>257</v>
+        <v>271</v>
       </c>
       <c r="D26" t="s">
-        <v>263</v>
+        <v>280</v>
       </c>
       <c r="E26" t="s">
         <v>1090</v>
@@ -49843,16 +49837,16 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>315</v>
+        <v>271</v>
       </c>
       <c r="B27" t="s">
-        <v>316</v>
+        <v>289</v>
       </c>
       <c r="C27" t="s">
-        <v>315</v>
+        <v>271</v>
       </c>
       <c r="D27" t="s">
-        <v>317</v>
+        <v>280</v>
       </c>
       <c r="E27" t="s">
         <v>1090</v>
@@ -49860,16 +49854,16 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>315</v>
+        <v>271</v>
       </c>
       <c r="B28" t="s">
-        <v>317</v>
+        <v>289</v>
       </c>
       <c r="C28" t="s">
-        <v>315</v>
+        <v>271</v>
       </c>
       <c r="D28" t="s">
-        <v>326</v>
+        <v>294</v>
       </c>
       <c r="E28" t="s">
         <v>1090</v>
@@ -49877,16 +49871,16 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>315</v>
+        <v>302</v>
       </c>
       <c r="B29" t="s">
-        <v>318</v>
+        <v>306</v>
       </c>
       <c r="C29" t="s">
-        <v>315</v>
+        <v>302</v>
       </c>
       <c r="D29" t="s">
-        <v>317</v>
+        <v>303</v>
       </c>
       <c r="E29" t="s">
         <v>1090</v>
@@ -49894,16 +49888,16 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>315</v>
+        <v>302</v>
       </c>
       <c r="B30" t="s">
-        <v>319</v>
+        <v>306</v>
       </c>
       <c r="C30" t="s">
-        <v>315</v>
+        <v>302</v>
       </c>
       <c r="D30" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="E30" t="s">
         <v>1090</v>
@@ -49911,16 +49905,16 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>315</v>
+        <v>302</v>
       </c>
       <c r="B31" t="s">
-        <v>321</v>
+        <v>311</v>
       </c>
       <c r="C31" t="s">
-        <v>315</v>
+        <v>302</v>
       </c>
       <c r="D31" t="s">
-        <v>326</v>
+        <v>308</v>
       </c>
       <c r="E31" t="s">
         <v>1090</v>
@@ -49928,16 +49922,16 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>328</v>
+        <v>302</v>
       </c>
       <c r="B32" t="s">
-        <v>331</v>
+        <v>311</v>
       </c>
       <c r="C32" t="s">
-        <v>197</v>
+        <v>257</v>
       </c>
       <c r="D32" t="s">
-        <v>201</v>
+        <v>263</v>
       </c>
       <c r="E32" t="s">
         <v>1090</v>
@@ -49945,16 +49939,16 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>328</v>
+        <v>315</v>
       </c>
       <c r="B33" t="s">
-        <v>331</v>
+        <v>316</v>
       </c>
       <c r="C33" t="s">
-        <v>197</v>
+        <v>315</v>
       </c>
       <c r="D33" t="s">
-        <v>198</v>
+        <v>317</v>
       </c>
       <c r="E33" t="s">
         <v>1090</v>
@@ -49962,16 +49956,16 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>328</v>
+        <v>315</v>
       </c>
       <c r="B34" t="s">
-        <v>331</v>
+        <v>317</v>
       </c>
       <c r="C34" t="s">
-        <v>197</v>
+        <v>315</v>
       </c>
       <c r="D34" t="s">
-        <v>203</v>
+        <v>326</v>
       </c>
       <c r="E34" t="s">
         <v>1090</v>
@@ -49979,16 +49973,16 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>328</v>
+        <v>315</v>
       </c>
       <c r="B35" t="s">
-        <v>331</v>
+        <v>318</v>
       </c>
       <c r="C35" t="s">
-        <v>197</v>
+        <v>315</v>
       </c>
       <c r="D35" t="s">
-        <v>202</v>
+        <v>317</v>
       </c>
       <c r="E35" t="s">
         <v>1090</v>
@@ -49996,16 +49990,16 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>339</v>
+        <v>315</v>
       </c>
       <c r="B36" t="s">
-        <v>341</v>
+        <v>319</v>
       </c>
       <c r="C36" t="s">
-        <v>339</v>
+        <v>315</v>
       </c>
       <c r="D36" t="s">
-        <v>342</v>
+        <v>322</v>
       </c>
       <c r="E36" t="s">
         <v>1090</v>
@@ -50013,16 +50007,16 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>347</v>
+        <v>315</v>
       </c>
       <c r="B37" t="s">
-        <v>350</v>
+        <v>321</v>
       </c>
       <c r="C37" t="s">
-        <v>347</v>
+        <v>315</v>
       </c>
       <c r="D37" t="s">
-        <v>348</v>
+        <v>326</v>
       </c>
       <c r="E37" t="s">
         <v>1090</v>
@@ -50030,16 +50024,16 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>365</v>
+        <v>328</v>
       </c>
       <c r="B38" t="s">
-        <v>366</v>
+        <v>331</v>
       </c>
       <c r="C38" t="s">
-        <v>271</v>
+        <v>197</v>
       </c>
       <c r="D38" t="s">
-        <v>295</v>
+        <v>201</v>
       </c>
       <c r="E38" t="s">
         <v>1090</v>
@@ -50047,16 +50041,16 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>365</v>
+        <v>328</v>
       </c>
       <c r="B39" t="s">
-        <v>366</v>
+        <v>331</v>
       </c>
       <c r="C39" t="s">
-        <v>271</v>
+        <v>197</v>
       </c>
       <c r="D39" t="s">
-        <v>290</v>
+        <v>198</v>
       </c>
       <c r="E39" t="s">
         <v>1090</v>
@@ -50064,16 +50058,16 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>367</v>
+        <v>328</v>
       </c>
       <c r="B40" t="s">
-        <v>368</v>
+        <v>331</v>
       </c>
       <c r="C40" t="s">
-        <v>179</v>
+        <v>197</v>
       </c>
       <c r="D40" t="s">
-        <v>181</v>
+        <v>203</v>
       </c>
       <c r="E40" t="s">
         <v>1090</v>
@@ -50081,16 +50075,16 @@
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>367</v>
+        <v>328</v>
       </c>
       <c r="B41" t="s">
-        <v>368</v>
+        <v>331</v>
       </c>
       <c r="C41" t="s">
-        <v>179</v>
+        <v>197</v>
       </c>
       <c r="D41" t="s">
-        <v>182</v>
+        <v>202</v>
       </c>
       <c r="E41" t="s">
         <v>1090</v>
@@ -50098,16 +50092,16 @@
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>367</v>
+        <v>339</v>
       </c>
       <c r="B42" t="s">
-        <v>369</v>
+        <v>341</v>
       </c>
       <c r="C42" t="s">
-        <v>179</v>
+        <v>339</v>
       </c>
       <c r="D42" t="s">
-        <v>181</v>
+        <v>342</v>
       </c>
       <c r="E42" t="s">
         <v>1090</v>
@@ -50115,16 +50109,16 @@
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>367</v>
+        <v>343</v>
       </c>
       <c r="B43" t="s">
-        <v>372</v>
+        <v>344</v>
       </c>
       <c r="C43" t="s">
-        <v>179</v>
+        <v>343</v>
       </c>
       <c r="D43" t="s">
-        <v>181</v>
+        <v>346</v>
       </c>
       <c r="E43" t="s">
         <v>1090</v>
@@ -50132,16 +50126,16 @@
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>367</v>
+        <v>347</v>
       </c>
       <c r="B44" t="s">
-        <v>372</v>
+        <v>350</v>
       </c>
       <c r="C44" t="s">
-        <v>179</v>
+        <v>347</v>
       </c>
       <c r="D44" t="s">
-        <v>182</v>
+        <v>348</v>
       </c>
       <c r="E44" t="s">
         <v>1090</v>
@@ -50149,16 +50143,16 @@
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B45" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="C45" t="s">
-        <v>179</v>
+        <v>271</v>
       </c>
       <c r="D45" t="s">
-        <v>181</v>
+        <v>295</v>
       </c>
       <c r="E45" t="s">
         <v>1090</v>
@@ -50166,16 +50160,16 @@
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B46" t="s">
-        <v>379</v>
+        <v>366</v>
       </c>
       <c r="C46" t="s">
-        <v>179</v>
+        <v>271</v>
       </c>
       <c r="D46" t="s">
-        <v>181</v>
+        <v>290</v>
       </c>
       <c r="E46" t="s">
         <v>1090</v>
@@ -50186,7 +50180,7 @@
         <v>367</v>
       </c>
       <c r="B47" t="s">
-        <v>380</v>
+        <v>368</v>
       </c>
       <c r="C47" t="s">
         <v>179</v>
@@ -50203,7 +50197,7 @@
         <v>367</v>
       </c>
       <c r="B48" t="s">
-        <v>380</v>
+        <v>368</v>
       </c>
       <c r="C48" t="s">
         <v>179</v>
@@ -50217,16 +50211,16 @@
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>383</v>
+        <v>367</v>
       </c>
       <c r="B49" t="s">
-        <v>384</v>
+        <v>369</v>
       </c>
       <c r="C49" t="s">
-        <v>383</v>
+        <v>179</v>
       </c>
       <c r="D49" t="s">
-        <v>413</v>
+        <v>181</v>
       </c>
       <c r="E49" t="s">
         <v>1090</v>
@@ -50234,16 +50228,16 @@
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>383</v>
+        <v>367</v>
       </c>
       <c r="B50" t="s">
-        <v>386</v>
+        <v>372</v>
       </c>
       <c r="C50" t="s">
-        <v>383</v>
+        <v>179</v>
       </c>
       <c r="D50" t="s">
-        <v>413</v>
+        <v>181</v>
       </c>
       <c r="E50" t="s">
         <v>1090</v>
@@ -50251,16 +50245,16 @@
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>383</v>
+        <v>367</v>
       </c>
       <c r="B51" t="s">
-        <v>390</v>
+        <v>372</v>
       </c>
       <c r="C51" t="s">
-        <v>383</v>
+        <v>179</v>
       </c>
       <c r="D51" t="s">
-        <v>403</v>
+        <v>182</v>
       </c>
       <c r="E51" t="s">
         <v>1090</v>
@@ -50268,16 +50262,16 @@
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>383</v>
+        <v>367</v>
       </c>
       <c r="B52" t="s">
-        <v>393</v>
+        <v>373</v>
       </c>
       <c r="C52" t="s">
-        <v>383</v>
+        <v>179</v>
       </c>
       <c r="D52" t="s">
-        <v>413</v>
+        <v>181</v>
       </c>
       <c r="E52" t="s">
         <v>1090</v>
@@ -50285,16 +50279,16 @@
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>383</v>
+        <v>367</v>
       </c>
       <c r="B53" t="s">
-        <v>404</v>
+        <v>379</v>
       </c>
       <c r="C53" t="s">
-        <v>383</v>
+        <v>179</v>
       </c>
       <c r="D53" t="s">
-        <v>413</v>
+        <v>181</v>
       </c>
       <c r="E53" t="s">
         <v>1090</v>
@@ -50302,16 +50296,16 @@
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>383</v>
+        <v>367</v>
       </c>
       <c r="B54" t="s">
-        <v>423</v>
+        <v>380</v>
       </c>
       <c r="C54" t="s">
-        <v>383</v>
+        <v>179</v>
       </c>
       <c r="D54" t="s">
-        <v>413</v>
+        <v>181</v>
       </c>
       <c r="E54" t="s">
         <v>1090</v>
@@ -50319,16 +50313,16 @@
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>424</v>
+        <v>367</v>
       </c>
       <c r="B55" t="s">
-        <v>426</v>
+        <v>380</v>
       </c>
       <c r="C55" t="s">
-        <v>257</v>
+        <v>179</v>
       </c>
       <c r="D55" t="s">
-        <v>258</v>
+        <v>182</v>
       </c>
       <c r="E55" t="s">
         <v>1090</v>
@@ -50336,16 +50330,16 @@
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>424</v>
+        <v>383</v>
       </c>
       <c r="B56" t="s">
-        <v>428</v>
+        <v>384</v>
       </c>
       <c r="C56" t="s">
-        <v>424</v>
+        <v>383</v>
       </c>
       <c r="D56" t="s">
-        <v>425</v>
+        <v>413</v>
       </c>
       <c r="E56" t="s">
         <v>1090</v>
@@ -50353,16 +50347,16 @@
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>494</v>
+        <v>383</v>
       </c>
       <c r="B57" t="s">
-        <v>5</v>
+        <v>386</v>
       </c>
       <c r="C57" t="s">
-        <v>494</v>
+        <v>383</v>
       </c>
       <c r="D57" t="s">
-        <v>502</v>
+        <v>413</v>
       </c>
       <c r="E57" t="s">
         <v>1090</v>
@@ -50370,67 +50364,67 @@
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>494</v>
+        <v>383</v>
       </c>
       <c r="B58" t="s">
-        <v>5</v>
+        <v>390</v>
       </c>
       <c r="C58" t="s">
-        <v>494</v>
+        <v>383</v>
       </c>
       <c r="D58" t="s">
-        <v>498</v>
+        <v>403</v>
       </c>
       <c r="E58" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>494</v>
+        <v>383</v>
       </c>
       <c r="B59" t="s">
-        <v>5</v>
+        <v>393</v>
       </c>
       <c r="C59" t="s">
-        <v>494</v>
+        <v>383</v>
       </c>
       <c r="D59" t="s">
-        <v>496</v>
+        <v>413</v>
       </c>
       <c r="E59" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>494</v>
+        <v>383</v>
       </c>
       <c r="B60" t="s">
-        <v>5</v>
+        <v>404</v>
       </c>
       <c r="C60" t="s">
-        <v>494</v>
+        <v>383</v>
       </c>
       <c r="D60" t="s">
-        <v>499</v>
+        <v>413</v>
       </c>
       <c r="E60" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>494</v>
+        <v>383</v>
       </c>
       <c r="B61" t="s">
-        <v>11</v>
+        <v>423</v>
       </c>
       <c r="C61" t="s">
-        <v>494</v>
+        <v>383</v>
       </c>
       <c r="D61" t="s">
-        <v>498</v>
+        <v>413</v>
       </c>
       <c r="E61" t="s">
         <v>1090</v>
@@ -50438,16 +50432,16 @@
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>494</v>
+        <v>424</v>
       </c>
       <c r="B62" t="s">
-        <v>11</v>
+        <v>426</v>
       </c>
       <c r="C62" t="s">
-        <v>494</v>
+        <v>257</v>
       </c>
       <c r="D62" t="s">
-        <v>496</v>
+        <v>258</v>
       </c>
       <c r="E62" t="s">
         <v>1090</v>
@@ -50455,16 +50449,16 @@
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>494</v>
+        <v>424</v>
       </c>
       <c r="B63" t="s">
-        <v>11</v>
+        <v>428</v>
       </c>
       <c r="C63" t="s">
-        <v>494</v>
+        <v>424</v>
       </c>
       <c r="D63" t="s">
-        <v>499</v>
+        <v>425</v>
       </c>
       <c r="E63" t="s">
         <v>1090</v>
@@ -50475,13 +50469,13 @@
         <v>494</v>
       </c>
       <c r="B64" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="C64" t="s">
         <v>494</v>
       </c>
       <c r="D64" t="s">
-        <v>498</v>
+        <v>502</v>
       </c>
       <c r="E64" t="s">
         <v>1090</v>
@@ -50492,16 +50486,16 @@
         <v>494</v>
       </c>
       <c r="B65" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="C65" t="s">
         <v>494</v>
       </c>
       <c r="D65" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="E65" t="s">
-        <v>1090</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="66">
@@ -50509,135 +50503,135 @@
         <v>494</v>
       </c>
       <c r="B66" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="C66" t="s">
         <v>494</v>
       </c>
       <c r="D66" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="E66" t="s">
-        <v>1090</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>722</v>
+        <v>494</v>
       </c>
       <c r="B67" t="s">
         <v>5</v>
       </c>
       <c r="C67" t="s">
-        <v>722</v>
+        <v>494</v>
       </c>
       <c r="D67" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="E67" t="s">
-        <v>1090</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>722</v>
+        <v>494</v>
       </c>
       <c r="B68" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C68" t="s">
-        <v>722</v>
+        <v>494</v>
       </c>
       <c r="D68" t="s">
-        <v>512</v>
+        <v>498</v>
       </c>
       <c r="E68" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>722</v>
+        <v>494</v>
       </c>
       <c r="B69" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C69" t="s">
-        <v>722</v>
+        <v>494</v>
       </c>
       <c r="D69" t="s">
-        <v>594</v>
+        <v>496</v>
       </c>
       <c r="E69" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>722</v>
+        <v>494</v>
       </c>
       <c r="B70" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C70" t="s">
-        <v>722</v>
+        <v>494</v>
       </c>
       <c r="D70" t="s">
-        <v>558</v>
+        <v>499</v>
       </c>
       <c r="E70" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>722</v>
+        <v>494</v>
       </c>
       <c r="B71" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="C71" t="s">
-        <v>722</v>
+        <v>494</v>
       </c>
       <c r="D71" t="s">
-        <v>670</v>
+        <v>498</v>
       </c>
       <c r="E71" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>722</v>
+        <v>494</v>
       </c>
       <c r="B72" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="C72" t="s">
-        <v>722</v>
+        <v>494</v>
       </c>
       <c r="D72" t="s">
-        <v>568</v>
+        <v>496</v>
       </c>
       <c r="E72" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>722</v>
+        <v>494</v>
       </c>
       <c r="B73" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="C73" t="s">
-        <v>722</v>
+        <v>494</v>
       </c>
       <c r="D73" t="s">
-        <v>578</v>
+        <v>499</v>
       </c>
       <c r="E73" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="74">
@@ -50651,10 +50645,10 @@
         <v>722</v>
       </c>
       <c r="D74" t="s">
-        <v>676</v>
+        <v>502</v>
       </c>
       <c r="E74" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="75">
@@ -50668,7 +50662,7 @@
         <v>722</v>
       </c>
       <c r="D75" t="s">
-        <v>678</v>
+        <v>512</v>
       </c>
       <c r="E75" t="s">
         <v>1091</v>
@@ -50685,7 +50679,7 @@
         <v>722</v>
       </c>
       <c r="D76" t="s">
-        <v>671</v>
+        <v>594</v>
       </c>
       <c r="E76" t="s">
         <v>1091</v>
@@ -50702,7 +50696,7 @@
         <v>722</v>
       </c>
       <c r="D77" t="s">
-        <v>667</v>
+        <v>558</v>
       </c>
       <c r="E77" t="s">
         <v>1091</v>
@@ -50713,16 +50707,16 @@
         <v>722</v>
       </c>
       <c r="B78" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="C78" t="s">
         <v>722</v>
       </c>
       <c r="D78" t="s">
-        <v>512</v>
+        <v>670</v>
       </c>
       <c r="E78" t="s">
-        <v>1090</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="79">
@@ -50730,16 +50724,16 @@
         <v>722</v>
       </c>
       <c r="B79" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="C79" t="s">
         <v>722</v>
       </c>
       <c r="D79" t="s">
-        <v>594</v>
+        <v>568</v>
       </c>
       <c r="E79" t="s">
-        <v>1090</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="80">
@@ -50747,16 +50741,16 @@
         <v>722</v>
       </c>
       <c r="B80" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="C80" t="s">
         <v>722</v>
       </c>
       <c r="D80" t="s">
-        <v>558</v>
+        <v>578</v>
       </c>
       <c r="E80" t="s">
-        <v>1090</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="81">
@@ -50764,16 +50758,16 @@
         <v>722</v>
       </c>
       <c r="B81" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="C81" t="s">
         <v>722</v>
       </c>
       <c r="D81" t="s">
-        <v>670</v>
+        <v>676</v>
       </c>
       <c r="E81" t="s">
-        <v>1090</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="82">
@@ -50781,16 +50775,16 @@
         <v>722</v>
       </c>
       <c r="B82" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="C82" t="s">
         <v>722</v>
       </c>
       <c r="D82" t="s">
-        <v>568</v>
+        <v>678</v>
       </c>
       <c r="E82" t="s">
-        <v>1090</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="83">
@@ -50798,16 +50792,16 @@
         <v>722</v>
       </c>
       <c r="B83" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="C83" t="s">
         <v>722</v>
       </c>
       <c r="D83" t="s">
-        <v>578</v>
+        <v>671</v>
       </c>
       <c r="E83" t="s">
-        <v>1090</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="84">
@@ -50815,16 +50809,16 @@
         <v>722</v>
       </c>
       <c r="B84" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="C84" t="s">
         <v>722</v>
       </c>
       <c r="D84" t="s">
-        <v>676</v>
+        <v>667</v>
       </c>
       <c r="E84" t="s">
-        <v>1090</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="85">
@@ -50838,7 +50832,7 @@
         <v>722</v>
       </c>
       <c r="D85" t="s">
-        <v>678</v>
+        <v>512</v>
       </c>
       <c r="E85" t="s">
         <v>1090</v>
@@ -50855,7 +50849,7 @@
         <v>722</v>
       </c>
       <c r="D86" t="s">
-        <v>671</v>
+        <v>594</v>
       </c>
       <c r="E86" t="s">
         <v>1090</v>
@@ -50872,7 +50866,7 @@
         <v>722</v>
       </c>
       <c r="D87" t="s">
-        <v>667</v>
+        <v>558</v>
       </c>
       <c r="E87" t="s">
         <v>1090</v>
@@ -50880,16 +50874,16 @@
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>740</v>
+        <v>722</v>
       </c>
       <c r="B88" t="s">
-        <v>741</v>
+        <v>19</v>
       </c>
       <c r="C88" t="s">
-        <v>764</v>
+        <v>722</v>
       </c>
       <c r="D88" t="s">
-        <v>370</v>
+        <v>670</v>
       </c>
       <c r="E88" t="s">
         <v>1090</v>
@@ -50897,16 +50891,16 @@
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>740</v>
+        <v>722</v>
       </c>
       <c r="B89" t="s">
-        <v>741</v>
+        <v>19</v>
       </c>
       <c r="C89" t="s">
-        <v>367</v>
+        <v>722</v>
       </c>
       <c r="D89" t="s">
-        <v>368</v>
+        <v>568</v>
       </c>
       <c r="E89" t="s">
         <v>1090</v>
@@ -50914,16 +50908,16 @@
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>740</v>
+        <v>722</v>
       </c>
       <c r="B90" t="s">
-        <v>742</v>
+        <v>19</v>
       </c>
       <c r="C90" t="s">
-        <v>367</v>
+        <v>722</v>
       </c>
       <c r="D90" t="s">
-        <v>368</v>
+        <v>578</v>
       </c>
       <c r="E90" t="s">
         <v>1090</v>
@@ -50931,16 +50925,16 @@
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>740</v>
+        <v>722</v>
       </c>
       <c r="B91" t="s">
-        <v>743</v>
+        <v>19</v>
       </c>
       <c r="C91" t="s">
-        <v>367</v>
+        <v>722</v>
       </c>
       <c r="D91" t="s">
-        <v>369</v>
+        <v>676</v>
       </c>
       <c r="E91" t="s">
         <v>1090</v>
@@ -50948,16 +50942,16 @@
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>740</v>
+        <v>722</v>
       </c>
       <c r="B92" t="s">
-        <v>744</v>
+        <v>19</v>
       </c>
       <c r="C92" t="s">
-        <v>179</v>
+        <v>722</v>
       </c>
       <c r="D92" t="s">
-        <v>182</v>
+        <v>678</v>
       </c>
       <c r="E92" t="s">
         <v>1090</v>
@@ -50965,16 +50959,16 @@
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>740</v>
+        <v>722</v>
       </c>
       <c r="B93" t="s">
-        <v>744</v>
+        <v>19</v>
       </c>
       <c r="C93" t="s">
-        <v>367</v>
+        <v>722</v>
       </c>
       <c r="D93" t="s">
-        <v>368</v>
+        <v>671</v>
       </c>
       <c r="E93" t="s">
         <v>1090</v>
@@ -50982,16 +50976,16 @@
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>740</v>
+        <v>722</v>
       </c>
       <c r="B94" t="s">
-        <v>745</v>
+        <v>19</v>
       </c>
       <c r="C94" t="s">
-        <v>367</v>
+        <v>722</v>
       </c>
       <c r="D94" t="s">
-        <v>368</v>
+        <v>667</v>
       </c>
       <c r="E94" t="s">
         <v>1090</v>
@@ -51002,13 +50996,13 @@
         <v>740</v>
       </c>
       <c r="B95" t="s">
-        <v>746</v>
+        <v>741</v>
       </c>
       <c r="C95" t="s">
-        <v>367</v>
+        <v>764</v>
       </c>
       <c r="D95" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="E95" t="s">
         <v>1090</v>
@@ -51019,7 +51013,7 @@
         <v>740</v>
       </c>
       <c r="B96" t="s">
-        <v>746</v>
+        <v>741</v>
       </c>
       <c r="C96" t="s">
         <v>367</v>
@@ -51036,13 +51030,13 @@
         <v>740</v>
       </c>
       <c r="B97" t="s">
-        <v>747</v>
+        <v>742</v>
       </c>
       <c r="C97" t="s">
-        <v>766</v>
+        <v>367</v>
       </c>
       <c r="D97" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="E97" t="s">
         <v>1090</v>
@@ -51053,13 +51047,13 @@
         <v>740</v>
       </c>
       <c r="B98" t="s">
-        <v>747</v>
+        <v>743</v>
       </c>
       <c r="C98" t="s">
         <v>367</v>
       </c>
       <c r="D98" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="E98" t="s">
         <v>1090</v>
@@ -51070,13 +51064,13 @@
         <v>740</v>
       </c>
       <c r="B99" t="s">
-        <v>748</v>
+        <v>744</v>
       </c>
       <c r="C99" t="s">
-        <v>367</v>
+        <v>179</v>
       </c>
       <c r="D99" t="s">
-        <v>368</v>
+        <v>182</v>
       </c>
       <c r="E99" t="s">
         <v>1090</v>
@@ -51087,7 +51081,7 @@
         <v>740</v>
       </c>
       <c r="B100" t="s">
-        <v>749</v>
+        <v>744</v>
       </c>
       <c r="C100" t="s">
         <v>367</v>
@@ -51104,13 +51098,13 @@
         <v>740</v>
       </c>
       <c r="B101" t="s">
-        <v>750</v>
+        <v>745</v>
       </c>
       <c r="C101" t="s">
-        <v>690</v>
+        <v>367</v>
       </c>
       <c r="D101" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="E101" t="s">
         <v>1090</v>
@@ -51121,13 +51115,13 @@
         <v>740</v>
       </c>
       <c r="B102" t="s">
-        <v>750</v>
+        <v>746</v>
       </c>
       <c r="C102" t="s">
         <v>367</v>
       </c>
       <c r="D102" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="E102" t="s">
         <v>1090</v>
@@ -51138,7 +51132,7 @@
         <v>740</v>
       </c>
       <c r="B103" t="s">
-        <v>751</v>
+        <v>746</v>
       </c>
       <c r="C103" t="s">
         <v>367</v>
@@ -51155,13 +51149,13 @@
         <v>740</v>
       </c>
       <c r="B104" t="s">
-        <v>752</v>
+        <v>747</v>
       </c>
       <c r="C104" t="s">
-        <v>367</v>
+        <v>766</v>
       </c>
       <c r="D104" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="E104" t="s">
         <v>1090</v>
@@ -51172,13 +51166,13 @@
         <v>740</v>
       </c>
       <c r="B105" t="s">
-        <v>753</v>
+        <v>747</v>
       </c>
       <c r="C105" t="s">
         <v>367</v>
       </c>
       <c r="D105" t="s">
-        <v>379</v>
+        <v>368</v>
       </c>
       <c r="E105" t="s">
         <v>1090</v>
@@ -51186,16 +51180,16 @@
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>754</v>
+        <v>740</v>
       </c>
       <c r="B106" t="s">
-        <v>755</v>
+        <v>748</v>
       </c>
       <c r="C106" t="s">
-        <v>759</v>
+        <v>367</v>
       </c>
       <c r="D106" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="E106" t="s">
         <v>1090</v>
@@ -51203,16 +51197,16 @@
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>754</v>
+        <v>740</v>
       </c>
       <c r="B107" t="s">
-        <v>755</v>
+        <v>749</v>
       </c>
       <c r="C107" t="s">
         <v>367</v>
       </c>
       <c r="D107" t="s">
-        <v>379</v>
+        <v>368</v>
       </c>
       <c r="E107" t="s">
         <v>1090</v>
@@ -51220,13 +51214,13 @@
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>754</v>
+        <v>740</v>
       </c>
       <c r="B108" t="s">
-        <v>756</v>
+        <v>750</v>
       </c>
       <c r="C108" t="s">
-        <v>767</v>
+        <v>690</v>
       </c>
       <c r="D108" t="s">
         <v>370</v>
@@ -51237,16 +51231,16 @@
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>754</v>
+        <v>740</v>
       </c>
       <c r="B109" t="s">
-        <v>756</v>
+        <v>750</v>
       </c>
       <c r="C109" t="s">
         <v>367</v>
       </c>
       <c r="D109" t="s">
-        <v>379</v>
+        <v>368</v>
       </c>
       <c r="E109" t="s">
         <v>1090</v>
@@ -51254,16 +51248,16 @@
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>754</v>
+        <v>740</v>
       </c>
       <c r="B110" t="s">
-        <v>757</v>
+        <v>751</v>
       </c>
       <c r="C110" t="s">
-        <v>763</v>
+        <v>367</v>
       </c>
       <c r="D110" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="E110" t="s">
         <v>1090</v>
@@ -51271,16 +51265,16 @@
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>754</v>
+        <v>740</v>
       </c>
       <c r="B111" t="s">
-        <v>757</v>
+        <v>752</v>
       </c>
       <c r="C111" t="s">
         <v>367</v>
       </c>
       <c r="D111" t="s">
-        <v>379</v>
+        <v>368</v>
       </c>
       <c r="E111" t="s">
         <v>1090</v>
@@ -51288,16 +51282,16 @@
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>754</v>
+        <v>740</v>
       </c>
       <c r="B112" t="s">
-        <v>758</v>
+        <v>753</v>
       </c>
       <c r="C112" t="s">
-        <v>765</v>
+        <v>367</v>
       </c>
       <c r="D112" t="s">
-        <v>370</v>
+        <v>379</v>
       </c>
       <c r="E112" t="s">
         <v>1090</v>
@@ -51308,15 +51302,134 @@
         <v>754</v>
       </c>
       <c r="B113" t="s">
+        <v>755</v>
+      </c>
+      <c r="C113" t="s">
+        <v>759</v>
+      </c>
+      <c r="D113" t="s">
+        <v>370</v>
+      </c>
+      <c r="E113" t="s">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="s">
+        <v>754</v>
+      </c>
+      <c r="B114" t="s">
+        <v>755</v>
+      </c>
+      <c r="C114" t="s">
+        <v>367</v>
+      </c>
+      <c r="D114" t="s">
+        <v>379</v>
+      </c>
+      <c r="E114" t="s">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="s">
+        <v>754</v>
+      </c>
+      <c r="B115" t="s">
+        <v>756</v>
+      </c>
+      <c r="C115" t="s">
+        <v>767</v>
+      </c>
+      <c r="D115" t="s">
+        <v>370</v>
+      </c>
+      <c r="E115" t="s">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="s">
+        <v>754</v>
+      </c>
+      <c r="B116" t="s">
+        <v>756</v>
+      </c>
+      <c r="C116" t="s">
+        <v>367</v>
+      </c>
+      <c r="D116" t="s">
+        <v>379</v>
+      </c>
+      <c r="E116" t="s">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="s">
+        <v>754</v>
+      </c>
+      <c r="B117" t="s">
+        <v>757</v>
+      </c>
+      <c r="C117" t="s">
+        <v>763</v>
+      </c>
+      <c r="D117" t="s">
+        <v>370</v>
+      </c>
+      <c r="E117" t="s">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="s">
+        <v>754</v>
+      </c>
+      <c r="B118" t="s">
+        <v>757</v>
+      </c>
+      <c r="C118" t="s">
+        <v>367</v>
+      </c>
+      <c r="D118" t="s">
+        <v>379</v>
+      </c>
+      <c r="E118" t="s">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="s">
+        <v>754</v>
+      </c>
+      <c r="B119" t="s">
         <v>758</v>
       </c>
-      <c r="C113" t="s">
+      <c r="C119" t="s">
+        <v>765</v>
+      </c>
+      <c r="D119" t="s">
+        <v>370</v>
+      </c>
+      <c r="E119" t="s">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="s">
+        <v>754</v>
+      </c>
+      <c r="B120" t="s">
+        <v>758</v>
+      </c>
+      <c r="C120" t="s">
         <v>367</v>
       </c>
-      <c r="D113" t="s">
+      <c r="D120" t="s">
         <v>379</v>
       </c>
-      <c r="E113" t="s">
+      <c r="E120" t="s">
         <v>1090</v>
       </c>
     </row>
@@ -51335,10 +51448,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>1094</v>
+        <v>1092</v>
       </c>
       <c r="B1" t="s">
-        <v>1095</v>
+        <v>1093</v>
       </c>
       <c r="C1" t="s">
         <v>1087</v>
@@ -51371,10 +51484,10 @@
         <v>1086</v>
       </c>
       <c r="C1" t="s">
-        <v>1096</v>
+        <v>1094</v>
       </c>
       <c r="D1" t="s">
-        <v>1097</v>
+        <v>1095</v>
       </c>
       <c r="E1" t="s">
         <v>1089</v>
@@ -51395,16 +51508,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>1094</v>
+        <v>1092</v>
       </c>
       <c r="B1" t="s">
+        <v>1093</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1096</v>
+      </c>
+      <c r="D1" t="s">
         <v>1095</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1098</v>
-      </c>
-      <c r="D1" t="s">
-        <v>1097</v>
       </c>
       <c r="E1" t="s">
         <v>1089</v>
@@ -51434,7 +51547,7 @@
         <v>1087</v>
       </c>
       <c r="D1" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
       <c r="E1" t="s">
         <v>1089</v>
@@ -53461,16 +53574,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>1094</v>
+        <v>1092</v>
       </c>
       <c r="B1" t="s">
-        <v>1095</v>
+        <v>1093</v>
       </c>
       <c r="C1" t="s">
         <v>1087</v>
       </c>
       <c r="D1" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
       <c r="E1" t="s">
         <v>1089</v>
